--- a/NetflixMovies/Doscumentation/Experiment/InformeExperimentos.xlsx
+++ b/NetflixMovies/Doscumentation/Experiment/InformeExperimentos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\NetflixMovies\NetflixMovies\Doscumentation\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prestamo\Documents\Integrador\NetflixMovies\NetflixMovies\Doscumentation\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17CFDA5-3499-4067-AB95-486B2A4F8FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CD854078-0DF7-4100-B1A3-7B964792255B}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Niveles" sheetId="2" r:id="rId2"/>
     <sheet name="Tratamientos" sheetId="3" r:id="rId3"/>
+    <sheet name="Ejecución" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Fenómeno, sistema o proceso:</t>
   </si>
@@ -114,13 +114,22 @@
   </si>
   <si>
     <t>Ram donde se ejecuta</t>
+  </si>
+  <si>
+    <t>Librería</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Porcentaje promedio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,11 +141,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,6 +159,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -162,6 +174,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -201,11 +220,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,23 +397,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,21 +739,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200CDC3F-1F16-49BC-9131-F071A0DA0D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="21" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +763,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,26 +772,26 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -608,8 +802,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
+    <row r="10" spans="2:8">
+      <c r="B10" s="11"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
@@ -618,8 +812,8 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
+    <row r="11" spans="2:8">
+      <c r="B11" s="11"/>
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
@@ -628,7 +822,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -636,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,7 +843,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -660,15 +854,15 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -677,8 +871,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="11"/>
+    <row r="18" spans="7:7">
+      <c r="G18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -692,49 +886,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F017AAE-2E94-43D2-9E33-487AB3978FB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="15"/>
       <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="13"/>
+    <row r="7" spans="2:7">
+      <c r="B7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="13"/>
+    <row r="8" spans="2:7">
+      <c r="B8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="E8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="E9" s="14" t="s">
         <v>26</v>
       </c>
@@ -756,88 +950,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144EE535-EA09-4C5E-9732-872BA4ACADAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="3:8">
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="F7" s="15"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
@@ -846,12 +1046,381 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="17">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16">
+        <v>0.40350000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16">
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="17">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16">
+        <v>0.60250000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16">
+        <v>0.61450000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16">
+        <v>0.58750000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="C26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="26">
+        <f>(F4+F7+F10)/3</f>
+        <v>0.40133333333333332</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="20">
+        <f>(F5+F8+F11)/3</f>
+        <v>0.39016666666666672</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" ref="E27:E28" si="0">(F6+F9+F12)/3</f>
+        <v>0.42016666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="20">
+        <f>(F13+F16+F19)/3</f>
+        <v>0.6123333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" ref="E30:E31" si="1">(F14+F17+F20)/3</f>
+        <v>0.59850000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="23">
+        <f t="shared" si="1"/>
+        <v>0.60266666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NetflixMovies/Doscumentation/Experiment/InformeExperimentos.xlsx
+++ b/NetflixMovies/Doscumentation/Experiment/InformeExperimentos.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Niveles" sheetId="2" r:id="rId2"/>
     <sheet name="Tratamientos" sheetId="3" r:id="rId3"/>
     <sheet name="Ejecución" sheetId="4" r:id="rId4"/>
+    <sheet name="ANOVA" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
   <si>
     <t>Fenómeno, sistema o proceso:</t>
   </si>
@@ -123,12 +124,84 @@
   </si>
   <si>
     <t>Porcentaje promedio</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M1=M2</t>
+  </si>
+  <si>
+    <t>Media Total</t>
+  </si>
+  <si>
+    <t>Suma de cuadrados total</t>
+  </si>
+  <si>
+    <t>Suma de cuadrados tratamiento</t>
+  </si>
+  <si>
+    <t>Suma de cuadrados residual</t>
+  </si>
+  <si>
+    <t>Grados de libertad SCT</t>
+  </si>
+  <si>
+    <t>Grados de libertad SCF</t>
+  </si>
+  <si>
+    <t>Grados de libertad SCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM Total </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tratamiento</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Origen variación</t>
+  </si>
+  <si>
+    <t>Suma de cuadrados</t>
+  </si>
+  <si>
+    <t>Grados de libertad</t>
+  </si>
+  <si>
+    <t>Cuadrado medio</t>
+  </si>
+  <si>
+    <t>F ratio</t>
+  </si>
+  <si>
+    <t>Rechazamos la hipótesis nula, lo que quiere decir que hay diferencias significativas entre las dos implementaciones</t>
+  </si>
+  <si>
+    <t>M1 ≠ M2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -197,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -379,12 +452,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -400,17 +545,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -425,8 +560,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -776,22 +932,22 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -803,7 +959,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="11"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
@@ -813,7 +969,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="11"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
@@ -896,44 +1052,44 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="2:7">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="30"/>
+      <c r="E6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="30"/>
+      <c r="E7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="30"/>
+      <c r="E8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -960,84 +1116,78 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="3:8">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="30"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
@@ -1046,6 +1196,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1053,375 +1209,783 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F31"/>
+  <dimension ref="B4:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:10">
+      <c r="B4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16">
+      <c r="E4" s="30"/>
+      <c r="F4" s="12">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="15" t="s">
+      <c r="I4" s="33">
+        <f>(F4-ANOVA!D$10)^2</f>
+        <v>1.0443704475308648E-2</v>
+      </c>
+      <c r="J4" s="31">
+        <f>(F4-D$34)^2</f>
+        <v>3.5679012345678841E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16">
+      <c r="E5" s="30"/>
+      <c r="F5" s="12">
         <v>0.36799999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="15" t="s">
+      <c r="I5" s="33">
+        <f>(F5-ANOVA!D$10)^2</f>
+        <v>1.8548926697530881E-2</v>
+      </c>
+      <c r="J5" s="31">
+        <f t="shared" ref="J5:J21" si="0">(F5-D$34)^2</f>
+        <v>1.2880123456790141E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16">
+      <c r="E6" s="30"/>
+      <c r="F6" s="12">
         <v>0.43099999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="15" t="s">
+      <c r="I6" s="33">
+        <f>(F6-ANOVA!D$10)^2</f>
+        <v>5.3574266975308735E-3</v>
+      </c>
+      <c r="J6" s="31">
+        <f t="shared" si="0"/>
+        <v>7.3501234567901097E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16">
+      <c r="E7" s="30"/>
+      <c r="F7" s="12">
         <v>0.41499999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="15" t="s">
+      <c r="I7" s="33">
+        <f>(F7-ANOVA!D$10)^2</f>
+        <v>7.9556489197530993E-3</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="0"/>
+        <v>1.2345679012345593E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17">
+      <c r="E8" s="30"/>
+      <c r="F8" s="13">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="15" t="s">
+      <c r="I8" s="33">
+        <f>(F8-ANOVA!D$10)^2</f>
+        <v>1.3040371141975319E-2</v>
+      </c>
+      <c r="J8" s="31">
+        <f t="shared" si="0"/>
+        <v>1.9290123456790141E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16">
+      <c r="E9" s="30"/>
+      <c r="F9" s="12">
         <v>0.40350000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="15" t="s">
+      <c r="I9" s="33">
+        <f>(F9-ANOVA!D$10)^2</f>
+        <v>1.0139371141975315E-2</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="0"/>
+        <v>1.5123456790123004E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16">
+      <c r="E10" s="30"/>
+      <c r="F10" s="12">
         <v>0.38700000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="15" t="s">
+      <c r="I10" s="33">
+        <f>(F10-ANOVA!D$10)^2</f>
+        <v>1.3734537808641986E-2</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="0"/>
+        <v>2.8523456790123487E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16">
+      <c r="E11" s="30"/>
+      <c r="F11" s="12">
         <v>0.41249999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="15" t="s">
+      <c r="I11" s="33">
+        <f>(F11-ANOVA!D$10)^2</f>
+        <v>8.4078711419753229E-3</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4151234567900519E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16">
+      <c r="E12" s="30"/>
+      <c r="F12" s="12">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="15" t="s">
+      <c r="I12" s="33">
+        <f>(F12-ANOVA!D$10)^2</f>
+        <v>6.114371141975319E-3</v>
+      </c>
+      <c r="J12" s="31">
+        <f t="shared" si="0"/>
+        <v>4.8890123456789996E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17">
+      <c r="E13" s="30"/>
+      <c r="F13" s="13">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="15" t="s">
+      <c r="I13" s="33">
+        <f>(F13-ANOVA!D$10)^2</f>
+        <v>1.3410926697530851E-2</v>
+      </c>
+      <c r="J13" s="31">
+        <f>(F13-D$35)^2</f>
+        <v>2.4024999999999871E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16">
+      <c r="E14" s="30"/>
+      <c r="F14" s="12">
         <v>0.61499999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="15" t="s">
+      <c r="I14" s="33">
+        <f>(F14-ANOVA!D$10)^2</f>
+        <v>1.2277871141975294E-2</v>
+      </c>
+      <c r="J14" s="31">
+        <f t="shared" ref="J14:J21" si="1">(F14-D$35)^2</f>
+        <v>1.1024999999999903E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16">
+      <c r="E15" s="30"/>
+      <c r="F15" s="12">
         <v>0.58299999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="15" t="s">
+      <c r="I15" s="33">
+        <f>(F15-ANOVA!D$10)^2</f>
+        <v>6.2103155864197384E-3</v>
+      </c>
+      <c r="J15" s="31">
+        <f t="shared" si="1"/>
+        <v>4.6225000000000319E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16">
+      <c r="E16" s="30"/>
+      <c r="F16" s="12">
         <v>0.60250000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="15" t="s">
+      <c r="I16" s="33">
+        <f>(F16-ANOVA!D$10)^2</f>
+        <v>9.6639822530864162E-3</v>
+      </c>
+      <c r="J16" s="31">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000074E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16">
+      <c r="E17" s="30"/>
+      <c r="F17" s="12">
         <v>0.59299999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="33">
+        <f>(F17-ANOVA!D$10)^2</f>
+        <v>7.8864266975308493E-3</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" si="1"/>
+        <v>1.3225000000000151E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16">
+      <c r="E18" s="30"/>
+      <c r="F18" s="12">
         <v>0.626</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="15" t="s">
+      <c r="I18" s="33">
+        <f>(F18-ANOVA!D$10)^2</f>
+        <v>1.4836593364197518E-2</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="1"/>
+        <v>4.6224999999999842E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16">
+      <c r="E19" s="30"/>
+      <c r="F19" s="12">
         <v>0.61450000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="15" t="s">
+      <c r="I19" s="33">
+        <f>(F19-ANOVA!D$10)^2</f>
+        <v>1.2167315586419751E-2</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000018E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16">
+      <c r="E20" s="30"/>
+      <c r="F20" s="12">
         <v>0.58750000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="15" t="s">
+      <c r="I20" s="33">
+        <f>(F20-ANOVA!D$10)^2</f>
+        <v>6.9398155864197472E-3</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="1"/>
+        <v>2.8900000000000052E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16">
+      <c r="E21" s="30"/>
+      <c r="F21" s="12">
         <v>0.59899999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C25" s="27" t="s">
+      <c r="I21" s="33">
+        <f>(F21-ANOVA!D$10)^2</f>
+        <v>8.988093364197515E-3</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" si="1"/>
+        <v>3.0250000000000664E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="H22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="33">
+        <f>SUM(I4:I21)</f>
+        <v>0.18612356944444441</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="31">
+        <f>(10*((D34-ANOVA!D10)^2)+10*((D35-ANOVA!D10)^2))</f>
+        <v>0.20122408950617288</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1">
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="33">
+        <f>SUM(J4:J21)</f>
+        <v>5.0218888888888882E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="C26" s="24" t="s">
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25">
+        <f>(18-1)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="C26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <f>(F4+F7+F10)/3</f>
         <v>0.40133333333333332</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="C27" s="19" t="s">
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26">
+        <f>(2-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="C27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="16">
         <f>(F5+F8+F11)/3</f>
         <v>0.39016666666666672</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="C28" s="19" t="s">
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27">
+        <f>I25-I26</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="C28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="20">
-        <f t="shared" ref="E27:E28" si="0">(F6+F9+F12)/3</f>
+      <c r="E28" s="16">
+        <f t="shared" ref="E28" si="2">(F6+F9+F12)/3</f>
         <v>0.42016666666666663</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="C29" s="19" t="s">
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="31">
+        <f>VAR(F4:F21)</f>
+        <v>1.0948445261437822E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="16">
         <f>(F13+F16+F19)/3</f>
         <v>0.6123333333333334</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="C30" s="19" t="s">
+    <row r="30" spans="2:10">
+      <c r="C30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="20">
-        <f t="shared" ref="E30:E31" si="1">(F14+F17+F20)/3</f>
+      <c r="E30" s="16">
+        <f t="shared" ref="E30:E31" si="3">(F14+F17+F20)/3</f>
         <v>0.59850000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C31" s="21" t="s">
+    <row r="31" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="23">
-        <f t="shared" si="1"/>
+      <c r="E31" s="19">
+        <f t="shared" si="3"/>
         <v>0.60266666666666668</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="32">
+        <f>(E26+E27+E28)/3</f>
+        <v>0.40388888888888891</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="32">
+        <f>(E29+E30+E31)/3</f>
+        <v>0.60450000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:4">
+      <c r="B8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.40388888888888891</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.60450000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="31">
+        <f>(D8+D9)/2</f>
+        <v>0.5041944444444445</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.18612356944444441</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.20122408950617288</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="31">
+        <v>5.0218888888888882E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="33">
+        <f>C13</f>
+        <v>0.18612356944444441</v>
+      </c>
+      <c r="D21">
+        <f>C16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="33">
+        <f>C14</f>
+        <v>0.20122408950617288</v>
+      </c>
+      <c r="D22">
+        <f>C17</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" ref="E22:E23" si="0">C22/D22</f>
+        <v>0.20122408950617288</v>
+      </c>
+      <c r="F22" s="39">
+        <f>E22/E23</f>
+        <v>641.11044735024223</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="33">
+        <f>C15</f>
+        <v>5.0218888888888882E-3</v>
+      </c>
+      <c r="D23">
+        <f>C18</f>
+        <v>16</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="0"/>
+        <v>3.1386805555555551E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>